--- a/data5.xlsx
+++ b/data5.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or204\PycharmProjects\EconomicsProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DEDEC-2E65-44A2-A86D-9D07115671F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19035" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$3:$R$153</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcMode="autoNoTable"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="399">
   <si>
     <t>ליאור</t>
   </si>
@@ -462,12 +478,6 @@
     <t>הפקדות</t>
   </si>
   <si>
-    <t xml:space="preserve">גלוקמן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אברג'ל </t>
-  </si>
-  <si>
     <t>אירית</t>
   </si>
   <si>
@@ -828,9 +838,6 @@
     <t>פרישה לגמלאות</t>
   </si>
   <si>
-    <t>29/02/2019</t>
-  </si>
-  <si>
     <t>עקום  שיעורי היוון</t>
   </si>
   <si>
@@ -1219,15 +1226,21 @@
   </si>
   <si>
     <t>03/04/201</t>
+  </si>
+  <si>
+    <t>גלוקמן</t>
+  </si>
+  <si>
+    <t>אברג'ל</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="26">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="General_)"/>
@@ -1257,21 +1270,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1756,7 +1769,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1764,7 +1777,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1772,7 +1785,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1781,7 +1794,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1790,7 +1803,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1799,7 +1812,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1807,7 +1820,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1816,7 +1829,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1825,7 +1838,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1834,7 +1847,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1842,7 +1855,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1850,7 +1863,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1858,7 +1871,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1867,7 +1880,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1875,7 +1888,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -1884,7 +1897,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1892,7 +1905,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1913,7 +1926,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2882,16 +2895,16 @@
     <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2987,7 +3000,7 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3253,7 +3266,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3307,387 +3320,390 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="379">
-    <cellStyle name="$" xfId="2"/>
-    <cellStyle name="%" xfId="3"/>
-    <cellStyle name="____Solvay - Combined Data" xfId="4"/>
-    <cellStyle name="____Solvay - Combined Data_2009 JP1-D_TP_20091211" xfId="5"/>
-    <cellStyle name="_2009 JP1-D_TP_20091211" xfId="6"/>
-    <cellStyle name="_Column1" xfId="7"/>
-    <cellStyle name="_Column1_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="8"/>
-    <cellStyle name="_Column2" xfId="9"/>
-    <cellStyle name="_Column3" xfId="10"/>
-    <cellStyle name="_Column4" xfId="11"/>
-    <cellStyle name="_Column4_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="12"/>
-    <cellStyle name="_Column5" xfId="13"/>
-    <cellStyle name="_Column6" xfId="14"/>
-    <cellStyle name="_Column7" xfId="15"/>
-    <cellStyle name="_Data" xfId="16"/>
-    <cellStyle name="_Data_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="17"/>
-    <cellStyle name="_FAS_87  2008 EDS Italy Final - check_FB" xfId="18"/>
-    <cellStyle name="_FAS_87  2008 EDS Italy Final - check_FB_2009 JP1-D_TP_20091211" xfId="19"/>
-    <cellStyle name="_FAS87 anno 2007_903 - PLC (FRANS)" xfId="20"/>
-    <cellStyle name="_FAS87 anno 2007_903 - PLC (FRANS)_2009 JP1-D_TP_20091211" xfId="21"/>
-    <cellStyle name="_Header" xfId="22"/>
-    <cellStyle name="_IAS19_ResultsFYE2008_FR101-104-106-111-113_RI plans" xfId="23"/>
-    <cellStyle name="_IAS19_ResultsFYE2008_FR103-105-107-108_RI plans" xfId="24"/>
-    <cellStyle name="_IAS19_ResultsFYE2008_FR109_RI plan" xfId="25"/>
-    <cellStyle name="_IAS19_ResultsFYE2008_FR110-115_RI plans" xfId="26"/>
-    <cellStyle name="_Row1" xfId="27"/>
-    <cellStyle name="_Row1_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="28"/>
-    <cellStyle name="_Row2" xfId="29"/>
-    <cellStyle name="_Row3" xfId="30"/>
-    <cellStyle name="_Row4" xfId="31"/>
-    <cellStyle name="_Row5" xfId="32"/>
-    <cellStyle name="_Row6" xfId="33"/>
-    <cellStyle name="_Row7" xfId="34"/>
-    <cellStyle name="_SCA P. Italia - check_FB" xfId="35"/>
-    <cellStyle name="_SCA P. Italia - check_FB_2009 JP1-D_TP_20091211" xfId="36"/>
-    <cellStyle name="_Solvay - Combined Data - STILL TO BE DONE" xfId="37"/>
-    <cellStyle name="_Solvay - Combined Data - STILL TO BE DONE_2009 JP1-D_TP_20091211" xfId="38"/>
-    <cellStyle name="20% - Accent1 2" xfId="39"/>
-    <cellStyle name="20% - Accent2 2" xfId="40"/>
-    <cellStyle name="20% - Accent3 2" xfId="41"/>
-    <cellStyle name="20% - Accent4 2" xfId="42"/>
-    <cellStyle name="20% - Accent5 2" xfId="43"/>
-    <cellStyle name="20% - Accent6 2" xfId="44"/>
-    <cellStyle name="20% - Colore 1" xfId="45"/>
-    <cellStyle name="20% - Colore 2" xfId="46"/>
-    <cellStyle name="20% - Colore 3" xfId="47"/>
-    <cellStyle name="20% - Colore 4" xfId="48"/>
-    <cellStyle name="20% - Colore 5" xfId="49"/>
-    <cellStyle name="20% - Colore 6" xfId="50"/>
-    <cellStyle name="20% - Énfasis1" xfId="51"/>
-    <cellStyle name="20% - Énfasis2" xfId="52"/>
-    <cellStyle name="20% - Énfasis3" xfId="53"/>
-    <cellStyle name="20% - Énfasis4" xfId="54"/>
-    <cellStyle name="20% - Énfasis5" xfId="55"/>
-    <cellStyle name="20% - Énfasis6" xfId="56"/>
-    <cellStyle name="20% - הדגשה1 2" xfId="57"/>
-    <cellStyle name="20% - הדגשה2 2" xfId="58"/>
-    <cellStyle name="20% - הדגשה3 2" xfId="59"/>
-    <cellStyle name="20% - הדגשה4 2" xfId="60"/>
-    <cellStyle name="20% - הדגשה5 2" xfId="61"/>
-    <cellStyle name="20% - הדגשה6 2" xfId="62"/>
-    <cellStyle name="40% - Accent1 2" xfId="63"/>
-    <cellStyle name="40% - Accent2 2" xfId="64"/>
-    <cellStyle name="40% - Accent3 2" xfId="65"/>
-    <cellStyle name="40% - Accent4 2" xfId="66"/>
-    <cellStyle name="40% - Accent5 2" xfId="67"/>
-    <cellStyle name="40% - Accent6 2" xfId="68"/>
-    <cellStyle name="40% - Colore 1" xfId="69"/>
-    <cellStyle name="40% - Colore 2" xfId="70"/>
-    <cellStyle name="40% - Colore 3" xfId="71"/>
-    <cellStyle name="40% - Colore 4" xfId="72"/>
-    <cellStyle name="40% - Colore 5" xfId="73"/>
-    <cellStyle name="40% - Colore 6" xfId="74"/>
-    <cellStyle name="40% - Énfasis1" xfId="75"/>
-    <cellStyle name="40% - Énfasis2" xfId="76"/>
-    <cellStyle name="40% - Énfasis3" xfId="77"/>
-    <cellStyle name="40% - Énfasis4" xfId="78"/>
-    <cellStyle name="40% - Énfasis5" xfId="79"/>
-    <cellStyle name="40% - Énfasis6" xfId="80"/>
-    <cellStyle name="40% - הדגשה1 2" xfId="81"/>
-    <cellStyle name="40% - הדגשה2 2" xfId="82"/>
-    <cellStyle name="40% - הדגשה3 2" xfId="83"/>
-    <cellStyle name="40% - הדגשה4 2" xfId="84"/>
-    <cellStyle name="40% - הדגשה5 2" xfId="85"/>
-    <cellStyle name="40% - הדגשה6 2" xfId="86"/>
-    <cellStyle name="60% - Accent1 2" xfId="87"/>
-    <cellStyle name="60% - Accent2 2" xfId="88"/>
-    <cellStyle name="60% - Accent3 2" xfId="89"/>
-    <cellStyle name="60% - Accent4 2" xfId="90"/>
-    <cellStyle name="60% - Accent5 2" xfId="91"/>
-    <cellStyle name="60% - Accent6 2" xfId="92"/>
-    <cellStyle name="60% - Colore 1" xfId="93"/>
-    <cellStyle name="60% - Colore 2" xfId="94"/>
-    <cellStyle name="60% - Colore 3" xfId="95"/>
-    <cellStyle name="60% - Colore 4" xfId="96"/>
-    <cellStyle name="60% - Colore 5" xfId="97"/>
-    <cellStyle name="60% - Colore 6" xfId="98"/>
-    <cellStyle name="60% - Énfasis1" xfId="99"/>
-    <cellStyle name="60% - Énfasis2" xfId="100"/>
-    <cellStyle name="60% - Énfasis3" xfId="101"/>
-    <cellStyle name="60% - Énfasis4" xfId="102"/>
-    <cellStyle name="60% - Énfasis5" xfId="103"/>
-    <cellStyle name="60% - Énfasis6" xfId="104"/>
-    <cellStyle name="60% - הדגשה1 2" xfId="105"/>
-    <cellStyle name="60% - הדגשה2 2" xfId="106"/>
-    <cellStyle name="60% - הדגשה3 2" xfId="107"/>
-    <cellStyle name="60% - הדגשה4 2" xfId="108"/>
-    <cellStyle name="60% - הדגשה5 2" xfId="109"/>
-    <cellStyle name="60% - הדגשה6 2" xfId="110"/>
-    <cellStyle name="Accent1 - 20%" xfId="111"/>
-    <cellStyle name="Accent1 - 40%" xfId="112"/>
-    <cellStyle name="Accent1 - 60%" xfId="113"/>
-    <cellStyle name="Accent1 2" xfId="114"/>
-    <cellStyle name="Accent2 - 20%" xfId="115"/>
-    <cellStyle name="Accent2 - 40%" xfId="116"/>
-    <cellStyle name="Accent2 - 60%" xfId="117"/>
-    <cellStyle name="Accent2 2" xfId="118"/>
-    <cellStyle name="Accent3 - 20%" xfId="119"/>
-    <cellStyle name="Accent3 - 40%" xfId="120"/>
-    <cellStyle name="Accent3 - 60%" xfId="121"/>
-    <cellStyle name="Accent3 2" xfId="122"/>
-    <cellStyle name="Accent4 - 20%" xfId="123"/>
-    <cellStyle name="Accent4 - 40%" xfId="124"/>
-    <cellStyle name="Accent4 - 60%" xfId="125"/>
-    <cellStyle name="Accent4 2" xfId="126"/>
-    <cellStyle name="Accent5 - 20%" xfId="127"/>
-    <cellStyle name="Accent5 - 40%" xfId="128"/>
-    <cellStyle name="Accent5 - 60%" xfId="129"/>
-    <cellStyle name="Accent5 2" xfId="130"/>
-    <cellStyle name="Accent6 - 20%" xfId="131"/>
-    <cellStyle name="Accent6 - 40%" xfId="132"/>
-    <cellStyle name="Accent6 - 60%" xfId="133"/>
-    <cellStyle name="Accent6 2" xfId="134"/>
-    <cellStyle name="assump" xfId="135"/>
-    <cellStyle name="Bad 2" xfId="136"/>
-    <cellStyle name="Base" xfId="137"/>
-    <cellStyle name="Buena" xfId="138"/>
-    <cellStyle name="Calcolo" xfId="139"/>
-    <cellStyle name="Calculation 2" xfId="140"/>
-    <cellStyle name="Cálculo" xfId="141"/>
-    <cellStyle name="Celda de comprobación" xfId="142"/>
-    <cellStyle name="Celda vinculada" xfId="143"/>
-    <cellStyle name="Cella collegata" xfId="144"/>
-    <cellStyle name="Cella da controllare" xfId="145"/>
-    <cellStyle name="Check Cell 2" xfId="146"/>
-    <cellStyle name="Col_head" xfId="147"/>
-    <cellStyle name="Colore 1" xfId="148"/>
-    <cellStyle name="Colore 2" xfId="149"/>
-    <cellStyle name="Colore 3" xfId="150"/>
-    <cellStyle name="Colore 4" xfId="151"/>
-    <cellStyle name="Colore 5" xfId="152"/>
-    <cellStyle name="Colore 6" xfId="153"/>
-    <cellStyle name="Comma 2" xfId="155"/>
-    <cellStyle name="Comma 3" xfId="156"/>
-    <cellStyle name="Comma 4" xfId="157"/>
-    <cellStyle name="Comma 5" xfId="158"/>
-    <cellStyle name="Comma 5 2" xfId="159"/>
-    <cellStyle name="Comma 6" xfId="160"/>
-    <cellStyle name="Comma 6 2" xfId="161"/>
-    <cellStyle name="Comma 7" xfId="162"/>
-    <cellStyle name="Comma 8" xfId="163"/>
-    <cellStyle name="Comma 9" xfId="154"/>
-    <cellStyle name="CustomBigInteger" xfId="164"/>
-    <cellStyle name="CustomBigIntegerEditable" xfId="165"/>
-    <cellStyle name="CustomDate" xfId="166"/>
-    <cellStyle name="CustomDateEditable" xfId="167"/>
-    <cellStyle name="CustomDecimal" xfId="168"/>
-    <cellStyle name="CustomDecimalEditable" xfId="169"/>
-    <cellStyle name="CustomPercentage" xfId="170"/>
-    <cellStyle name="CustomPercentageEditable" xfId="171"/>
-    <cellStyle name="Data Input" xfId="172"/>
-    <cellStyle name="DATA_COMP" xfId="173"/>
-    <cellStyle name="Date" xfId="174"/>
-    <cellStyle name="Dezimal +" xfId="175"/>
-    <cellStyle name="Dezimal + 0" xfId="176"/>
-    <cellStyle name="Dezimal 0" xfId="177"/>
-    <cellStyle name="DOWNFOOT" xfId="178"/>
-    <cellStyle name="Emphasis 1" xfId="179"/>
-    <cellStyle name="Emphasis 2" xfId="180"/>
-    <cellStyle name="Emphasis 3" xfId="181"/>
-    <cellStyle name="Encabezado 4" xfId="182"/>
-    <cellStyle name="Énfasis1" xfId="183"/>
-    <cellStyle name="Énfasis2" xfId="184"/>
-    <cellStyle name="Énfasis3" xfId="185"/>
-    <cellStyle name="Énfasis4" xfId="186"/>
-    <cellStyle name="Énfasis5" xfId="187"/>
-    <cellStyle name="Énfasis6" xfId="188"/>
-    <cellStyle name="Entrada" xfId="189"/>
-    <cellStyle name="Euro" xfId="190"/>
-    <cellStyle name="Explanatory Text 2" xfId="191"/>
-    <cellStyle name="Fixed" xfId="192"/>
-    <cellStyle name="Fixed (0)" xfId="193"/>
-    <cellStyle name="Foot" xfId="194"/>
-    <cellStyle name="Format Datenfeld" xfId="195"/>
-    <cellStyle name="Format Zeile/Spalte" xfId="196"/>
-    <cellStyle name="Good 2" xfId="197"/>
-    <cellStyle name="Head" xfId="198"/>
-    <cellStyle name="Header1" xfId="199"/>
-    <cellStyle name="Header2" xfId="200"/>
-    <cellStyle name="Header3" xfId="201"/>
-    <cellStyle name="Header4" xfId="202"/>
-    <cellStyle name="Header5" xfId="203"/>
-    <cellStyle name="Header6" xfId="204"/>
-    <cellStyle name="Heading 1 2" xfId="205"/>
-    <cellStyle name="Heading 2 2" xfId="206"/>
-    <cellStyle name="Heading 3 2" xfId="207"/>
-    <cellStyle name="Heading 4 2" xfId="208"/>
-    <cellStyle name="Heading1" xfId="209"/>
-    <cellStyle name="Heading2" xfId="210"/>
-    <cellStyle name="HiddenLocked" xfId="211"/>
-    <cellStyle name="Incorrecto" xfId="212"/>
-    <cellStyle name="Input 2" xfId="213"/>
-    <cellStyle name="Linked Cell 2" xfId="214"/>
-    <cellStyle name="Long Date" xfId="215"/>
-    <cellStyle name="Mida" xfId="216"/>
-    <cellStyle name="Migliaia_TFR Solvay - Aggregate data - 1 Jan to 31 Dec 2007" xfId="217"/>
-    <cellStyle name="Milliers_Synthèse IAS 19" xfId="218"/>
-    <cellStyle name="Monétaire [0]_taxesschedule" xfId="219"/>
-    <cellStyle name="Monétaire_taxesschedule" xfId="220"/>
-    <cellStyle name="Name" xfId="221"/>
-    <cellStyle name="Neutral 2" xfId="222"/>
-    <cellStyle name="Neutrale" xfId="223"/>
+    <cellStyle name="$" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="%" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="____Solvay - Combined Data" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="____Solvay - Combined Data_2009 JP1-D_TP_20091211" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_2009 JP1-D_TP_20091211" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_Column1" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_Column1_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_Column2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="_Column3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="_Column4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="_Column4_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="_Column5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="_Column6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="_Column7" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="_Data" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="_Data_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="_FAS_87  2008 EDS Italy Final - check_FB" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="_FAS_87  2008 EDS Italy Final - check_FB_2009 JP1-D_TP_20091211" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="_FAS87 anno 2007_903 - PLC (FRANS)" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="_FAS87 anno 2007_903 - PLC (FRANS)_2009 JP1-D_TP_20091211" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="_Header" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="_IAS19_ResultsFYE2008_FR101-104-106-111-113_RI plans" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="_IAS19_ResultsFYE2008_FR103-105-107-108_RI plans" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="_IAS19_ResultsFYE2008_FR109_RI plan" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="_IAS19_ResultsFYE2008_FR110-115_RI plans" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="_Row1" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="_Row1_RückLieferung_05 an DPDHL 02022010 Kontrolle 20100203 final" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="_Row2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="_Row3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="_Row4" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="_Row5" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="_Row6" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="_Row7" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="_SCA P. Italia - check_FB" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="_SCA P. Italia - check_FB_2009 JP1-D_TP_20091211" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="_Solvay - Combined Data - STILL TO BE DONE" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="_Solvay - Combined Data - STILL TO BE DONE_2009 JP1-D_TP_20091211" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Colore 1" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Colore 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Colore 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Colore 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Colore 5" xfId="49" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Colore 6" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Énfasis1" xfId="51" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Énfasis2" xfId="52" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Énfasis3" xfId="53" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Énfasis4" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Énfasis5" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - Énfasis6" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - הדגשה1 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - הדגשה2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - הדגשה3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - הדגשה4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - הדגשה5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - הדגשה6 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - Colore 1" xfId="69" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - Colore 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - Colore 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - Colore 4" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - Colore 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - Colore 6" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Énfasis1" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - Énfasis2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Énfasis3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - Énfasis4" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Énfasis5" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - Énfasis6" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - הדגשה1 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - הדגשה2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - הדגשה3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - הדגשה4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - הדגשה5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - הדגשה6 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="60% - Colore 1" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="60% - Colore 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="60% - Colore 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="60% - Colore 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="60% - Colore 5" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="60% - Colore 6" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="60% - Énfasis1" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="60% - Énfasis2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="60% - Énfasis3" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="60% - Énfasis4" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="60% - Énfasis5" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="60% - Énfasis6" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="60% - הדגשה1 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="60% - הדגשה2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="60% - הדגשה3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="60% - הדגשה4 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="60% - הדגשה5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="60% - הדגשה6 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Accent1 - 20%" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Accent1 - 40%" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Accent1 - 60%" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Accent1 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Accent2 - 20%" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Accent2 - 40%" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Accent2 - 60%" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Accent2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Accent3 - 20%" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Accent3 - 40%" xfId="120" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Accent3 - 60%" xfId="121" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Accent3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Accent4 - 20%" xfId="123" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Accent4 - 40%" xfId="124" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Accent4 - 60%" xfId="125" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Accent4 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Accent5 - 20%" xfId="127" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Accent5 - 40%" xfId="128" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Accent5 - 60%" xfId="129" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Accent5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Accent6 - 20%" xfId="131" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Accent6 - 40%" xfId="132" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Accent6 - 60%" xfId="133" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Accent6 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="assump" xfId="135" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Bad 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Base" xfId="137" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Buena" xfId="138" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Calcolo" xfId="139" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Calculation 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Cálculo" xfId="141" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Celda de comprobación" xfId="142" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Celda vinculada" xfId="143" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Cella collegata" xfId="144" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Cella da controllare" xfId="145" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Check Cell 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Col_head" xfId="147" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Colore 1" xfId="148" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Colore 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Colore 3" xfId="150" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Colore 4" xfId="151" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Colore 5" xfId="152" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Colore 6" xfId="153" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Comma 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Comma 3" xfId="156" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Comma 4" xfId="157" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Comma 5" xfId="158" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Comma 5 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Comma 6" xfId="160" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Comma 6 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Comma 7" xfId="162" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Comma 8" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Comma 9" xfId="154" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="CustomBigInteger" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="CustomBigIntegerEditable" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="CustomDate" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="CustomDateEditable" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="CustomDecimal" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="CustomDecimalEditable" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="CustomPercentage" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="CustomPercentageEditable" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Data Input" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="DATA_COMP" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Date" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Dezimal +" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Dezimal + 0" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Dezimal 0" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="DOWNFOOT" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Emphasis 1" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Emphasis 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Emphasis 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Encabezado 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Énfasis1" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Énfasis2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Énfasis3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Énfasis4" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Énfasis5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Énfasis6" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Entrada" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Euro" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Fixed" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Fixed (0)" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Foot" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Format Datenfeld" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Format Zeile/Spalte" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Good 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Head" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Header1" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Header2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Header3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Header4" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Header5" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Header6" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Heading 1 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Heading 2 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Heading 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Heading 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Heading1" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Heading2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="HiddenLocked" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Incorrecto" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Input 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Long Date" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Mida" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Migliaia_TFR Solvay - Aggregate data - 1 Jan to 31 Dec 2007" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Milliers_Synthèse IAS 19" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Monétaire [0]_taxesschedule" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Monétaire_taxesschedule" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Name" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Neutral 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Neutrale" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="224"/>
-    <cellStyle name="Normal 11" xfId="225"/>
-    <cellStyle name="Normal 12" xfId="226"/>
-    <cellStyle name="Normal 13" xfId="227"/>
-    <cellStyle name="Normal 14" xfId="228"/>
-    <cellStyle name="Normal 15" xfId="229"/>
-    <cellStyle name="Normal 15 2" xfId="230"/>
-    <cellStyle name="Normal 16" xfId="1"/>
-    <cellStyle name="Normal 17" xfId="231"/>
-    <cellStyle name="Normal 18" xfId="232"/>
-    <cellStyle name="Normal 19" xfId="233"/>
-    <cellStyle name="Normal 2" xfId="234"/>
-    <cellStyle name="Normal 2 2" xfId="235"/>
-    <cellStyle name="Normal 2 3" xfId="236"/>
-    <cellStyle name="Normal 2_נתונים כלליים" xfId="237"/>
-    <cellStyle name="Normal 20" xfId="238"/>
-    <cellStyle name="Normal 24" xfId="239"/>
-    <cellStyle name="Normal 28" xfId="240"/>
-    <cellStyle name="Normal 3" xfId="241"/>
-    <cellStyle name="Normal 4" xfId="242"/>
-    <cellStyle name="Normal 5" xfId="243"/>
-    <cellStyle name="Normal 6" xfId="244"/>
-    <cellStyle name="Normal 6 2" xfId="245"/>
-    <cellStyle name="Normal 7" xfId="246"/>
-    <cellStyle name="Normal 8" xfId="247"/>
-    <cellStyle name="Normal 9" xfId="248"/>
-    <cellStyle name="Normale_Foglio1" xfId="249"/>
-    <cellStyle name="Nota" xfId="250"/>
-    <cellStyle name="Notas" xfId="251"/>
-    <cellStyle name="Note 2" xfId="252"/>
-    <cellStyle name="Note 3" xfId="253"/>
-    <cellStyle name="Number10" xfId="254"/>
-    <cellStyle name="Number10Editable" xfId="255"/>
-    <cellStyle name="Number3" xfId="256"/>
-    <cellStyle name="Number3Editable" xfId="257"/>
-    <cellStyle name="Number4" xfId="258"/>
-    <cellStyle name="Number4Editable" xfId="259"/>
-    <cellStyle name="Output 2" xfId="260"/>
+    <cellStyle name="Normal 10" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 11" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 12" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Normal 13" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Normal 14" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 15" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Normal 15 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Normal 16" xfId="1" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normal 17" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Normal 18" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Normal 19" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 2_נתונים כלליים" xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Normal 20" xfId="238" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 24" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Normal 28" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Normal 3" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Normal 4" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Normal 5" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Normal 6" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Normal 6 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Normal 7" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Normal 8" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Normal 9" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normale_Foglio1" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Nota" xfId="250" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Notas" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Note 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Note 3" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Number10" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Number10Editable" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Number3" xfId="256" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Number3Editable" xfId="257" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Number4" xfId="258" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Number4Editable" xfId="259" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Output 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
     <cellStyle name="Percent" xfId="378" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="262"/>
-    <cellStyle name="Percent 2 2 2" xfId="263"/>
-    <cellStyle name="Percent 3" xfId="264"/>
-    <cellStyle name="Percent 3 2" xfId="265"/>
-    <cellStyle name="Percent 4" xfId="266"/>
-    <cellStyle name="Percent 5" xfId="267"/>
-    <cellStyle name="Percent 5 2" xfId="268"/>
-    <cellStyle name="Percent 6" xfId="269"/>
-    <cellStyle name="Percent 6 2" xfId="270"/>
-    <cellStyle name="Percent 7" xfId="271"/>
-    <cellStyle name="Percent 7 2" xfId="272"/>
-    <cellStyle name="Percent 8" xfId="273"/>
-    <cellStyle name="Percent 9" xfId="261"/>
-    <cellStyle name="Prozent 2" xfId="274"/>
-    <cellStyle name="Salida" xfId="275"/>
-    <cellStyle name="SAPBEXaggData" xfId="276"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="277"/>
-    <cellStyle name="SAPBEXaggItem" xfId="278"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="279"/>
-    <cellStyle name="SAPBEXchaText" xfId="280"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="281"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="282"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="283"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="284"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="285"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="286"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="287"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="288"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="289"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="290"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="291"/>
-    <cellStyle name="SAPBEXfilterText" xfId="292"/>
-    <cellStyle name="SAPBEXformats" xfId="293"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="294"/>
-    <cellStyle name="SAPBEXheaderText" xfId="295"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="296"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="297"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="298"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="299"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="300"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="301"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="302"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="303"/>
-    <cellStyle name="SAPBEXinputData" xfId="304"/>
-    <cellStyle name="SAPBEXresData" xfId="305"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="306"/>
-    <cellStyle name="SAPBEXresItem" xfId="307"/>
-    <cellStyle name="SAPBEXresItemX" xfId="308"/>
-    <cellStyle name="SAPBEXstdData" xfId="309"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="310"/>
-    <cellStyle name="SAPBEXstdItem" xfId="311"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="312"/>
-    <cellStyle name="SAPBEXtitle" xfId="313"/>
-    <cellStyle name="SAPBEXundefined" xfId="314"/>
-    <cellStyle name="Sheet Title" xfId="315"/>
-    <cellStyle name="Short Date" xfId="316"/>
-    <cellStyle name="Standard 2" xfId="317"/>
-    <cellStyle name="Standard_ALLE" xfId="318"/>
-    <cellStyle name="Stil 1" xfId="319"/>
-    <cellStyle name="StringWrapLeft" xfId="320"/>
-    <cellStyle name="StringWrapLeftEditable" xfId="321"/>
-    <cellStyle name="StringWrapRight" xfId="322"/>
-    <cellStyle name="StringWrapRightEditable" xfId="323"/>
-    <cellStyle name="Style 1" xfId="324"/>
-    <cellStyle name="Sub_head" xfId="325"/>
-    <cellStyle name="Testo avviso" xfId="326"/>
-    <cellStyle name="Testo descrittivo" xfId="327"/>
-    <cellStyle name="Text" xfId="328"/>
-    <cellStyle name="Texto de advertencia" xfId="329"/>
-    <cellStyle name="Texto explicativo" xfId="330"/>
-    <cellStyle name="Title 2" xfId="331"/>
-    <cellStyle name="Titolo" xfId="332"/>
-    <cellStyle name="Titolo 1" xfId="333"/>
-    <cellStyle name="Titolo 2" xfId="334"/>
-    <cellStyle name="Titolo 3" xfId="335"/>
-    <cellStyle name="Titolo 4" xfId="336"/>
-    <cellStyle name="Titolo_2009 JP1-D_TP_20091211" xfId="337"/>
-    <cellStyle name="Título" xfId="338"/>
-    <cellStyle name="Título 1" xfId="339"/>
-    <cellStyle name="Título 2" xfId="340"/>
-    <cellStyle name="Título 3" xfId="341"/>
-    <cellStyle name="Título_2009 JP1-D_TP_20091211" xfId="342"/>
-    <cellStyle name="Total 2" xfId="343"/>
-    <cellStyle name="Total 3" xfId="344"/>
-    <cellStyle name="Totale" xfId="345"/>
-    <cellStyle name="Valore non valido" xfId="346"/>
-    <cellStyle name="Valore valido" xfId="347"/>
-    <cellStyle name="Valuta (0)_MIP2002PlasticBeverage_fm_ZATTI" xfId="348"/>
-    <cellStyle name="Währung +" xfId="349"/>
-    <cellStyle name="Währung + 0" xfId="350"/>
-    <cellStyle name="Währung 0" xfId="351"/>
-    <cellStyle name="Warning Text 2" xfId="352"/>
-    <cellStyle name="הדגשה1 2" xfId="353"/>
-    <cellStyle name="הדגשה2 2" xfId="354"/>
-    <cellStyle name="הדגשה3 2" xfId="355"/>
-    <cellStyle name="הדגשה4 2" xfId="356"/>
-    <cellStyle name="הדגשה5 2" xfId="357"/>
-    <cellStyle name="הדגשה6 2" xfId="358"/>
-    <cellStyle name="הערה 2" xfId="359"/>
-    <cellStyle name="חישוב 2" xfId="360"/>
-    <cellStyle name="טוב 2" xfId="361"/>
-    <cellStyle name="טקסט אזהרה 2" xfId="362"/>
-    <cellStyle name="טקסט הסברי 2" xfId="363"/>
-    <cellStyle name="כותרת 1 2" xfId="364"/>
-    <cellStyle name="כותרת 2 2" xfId="365"/>
-    <cellStyle name="כותרת 3 2" xfId="366"/>
-    <cellStyle name="כותרת 4 2" xfId="367"/>
-    <cellStyle name="כותרת 5" xfId="368"/>
-    <cellStyle name="ניטראלי 2" xfId="369"/>
-    <cellStyle name="סגנון 1" xfId="370"/>
-    <cellStyle name="סה&quot;כ 2" xfId="371"/>
-    <cellStyle name="פלט 2" xfId="372"/>
-    <cellStyle name="קלט 2" xfId="373"/>
-    <cellStyle name="רע 2" xfId="374"/>
-    <cellStyle name="תא מסומן 2" xfId="375"/>
-    <cellStyle name="תא מקושר 2" xfId="376"/>
-    <cellStyle name="一般_Request for Asset and Cash Flows-CTC-2008" xfId="377"/>
+    <cellStyle name="Percent 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Percent 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Percent 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Percent 4" xfId="266" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Percent 5" xfId="267" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Percent 5 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Percent 6" xfId="269" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Percent 6 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Percent 7" xfId="271" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Percent 7 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Percent 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Percent 9" xfId="261" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Prozent 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Salida" xfId="275" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="SAPBEXaggData" xfId="276" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="277" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="278" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="279" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="SAPBEXchaText" xfId="280" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="281" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="282" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="283" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="284" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="285" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="286" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="287" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="288" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="289" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="290" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="291" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="292" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="SAPBEXformats" xfId="293" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="294" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="295" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="SAPBEXinputData" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="SAPBEXresData" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="SAPBEXresItem" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="SAPBEXstdData" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="SAPBEXtitle" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="SAPBEXundefined" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Sheet Title" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Short Date" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Standard 2" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Standard_ALLE" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Stil 1" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="StringWrapLeft" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="StringWrapLeftEditable" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="StringWrapRight" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="StringWrapRightEditable" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Style 1" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Sub_head" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Testo avviso" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Testo descrittivo" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Text" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Texto de advertencia" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Texto explicativo" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Title 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Titolo" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Titolo 1" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Titolo 2" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Titolo 3" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Titolo 4" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Titolo_2009 JP1-D_TP_20091211" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Título" xfId="338" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Título 1" xfId="339" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Título 2" xfId="340" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Título 3" xfId="341" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Título_2009 JP1-D_TP_20091211" xfId="342" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Total 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Total 3" xfId="344" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Totale" xfId="345" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Valore non valido" xfId="346" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Valore valido" xfId="347" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Valuta (0)_MIP2002PlasticBeverage_fm_ZATTI" xfId="348" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Währung +" xfId="349" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Währung + 0" xfId="350" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Währung 0" xfId="351" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Warning Text 2" xfId="352" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="הדגשה1 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="הדגשה2 2" xfId="354" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="הדגשה3 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="הדגשה4 2" xfId="356" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="הדגשה5 2" xfId="357" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="הדגשה6 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="הערה 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="חישוב 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="טוב 2" xfId="361" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="טקסט אזהרה 2" xfId="362" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="טקסט הסברי 2" xfId="363" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="כותרת 1 2" xfId="364" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="כותרת 2 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="כותרת 3 2" xfId="366" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="כותרת 4 2" xfId="367" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="כותרת 5" xfId="368" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="ניטראלי 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="סגנון 1" xfId="370" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="סה&quot;כ 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="פלט 2" xfId="372" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="קלט 2" xfId="373" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="רע 2" xfId="374" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="תא מסומן 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="תא מקושר 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="一般_Request for Asset and Cash Flows-CTC-2008" xfId="377" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3695,12 +3711,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3742,7 +3761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3775,9 +3794,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3810,6 +3846,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3985,29 +4038,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="O128" sqref="O127:O128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4026,7 +4079,7 @@
       </c>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="45">
+    <row r="3" spans="1:18" ht="41.4">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -4049,7 +4102,7 @@
         <v>143</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>145</v>
@@ -4058,16 +4111,16 @@
         <v>146</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
@@ -4078,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1</v>
@@ -4123,7 +4176,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
@@ -4159,7 +4212,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="14.4">
       <c r="A6" s="19">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
@@ -4198,7 +4251,7 @@
         <v>350000</v>
       </c>
       <c r="O6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="27"/>
       <c r="R6" s="15"/>
@@ -4209,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -4244,7 +4297,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="15"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="14.4">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4253,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>1</v>
@@ -4285,12 +4338,12 @@
       </c>
       <c r="M8" s="15"/>
       <c r="O8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="27"/>
       <c r="R8" s="15"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="14.4">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4299,7 +4352,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>1</v>
@@ -4332,7 +4385,7 @@
         <v>35000</v>
       </c>
       <c r="O9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="27"/>
       <c r="R9" s="15"/>
@@ -4343,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>40</v>
@@ -4380,7 +4433,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="15"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="14.4">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4389,7 +4442,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>4</v>
@@ -4422,7 +4475,7 @@
         <v>30000</v>
       </c>
       <c r="O11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="27"/>
       <c r="R11" s="15"/>
@@ -4433,10 +4486,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>4</v>
@@ -4526,7 +4579,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>1</v>
@@ -4564,10 +4617,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>1</v>
@@ -4647,7 +4700,7 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="14.4">
       <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4656,7 +4709,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>4</v>
@@ -4686,7 +4739,7 @@
         <v>145000</v>
       </c>
       <c r="O17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="27"/>
       <c r="R17" s="15"/>
@@ -4700,7 +4753,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>1</v>
@@ -4831,10 +4884,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>4</v>
@@ -4876,10 +4929,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>1</v>
@@ -4914,7 +4967,7 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="14.4">
       <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4953,7 +5006,7 @@
         <v>82000</v>
       </c>
       <c r="O23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="27"/>
       <c r="R23" s="2"/>
@@ -4967,7 +5020,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1</v>
@@ -5009,7 +5062,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>4</v>
@@ -5041,7 +5094,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="14.4">
       <c r="A26" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5050,7 +5103,7 @@
         <v>129</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>1</v>
@@ -5083,7 +5136,7 @@
         <v>20000</v>
       </c>
       <c r="O26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="R26" s="2"/>
@@ -5139,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>1</v>
@@ -5178,10 +5231,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>4</v>
@@ -5293,7 +5346,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="14.4">
       <c r="A32" s="19">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5302,7 +5355,7 @@
         <v>94</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>1</v>
@@ -5330,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="27"/>
       <c r="R32" s="2"/>
@@ -5350,7 +5403,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>1</v>
@@ -5392,7 +5445,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>4</v>
@@ -5434,7 +5487,7 @@
         <v>117</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>1</v>
@@ -5506,10 +5559,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>1</v>
@@ -5541,13 +5594,13 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" ht="14.4">
       <c r="A38" s="19">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>16</v>
@@ -5584,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="27"/>
       <c r="R38" s="2"/>
@@ -5598,7 +5651,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>1</v>
@@ -5756,13 +5809,13 @@
       <c r="Q42" s="27"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="14.4">
       <c r="A43" s="19">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>74</v>
@@ -5799,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q43" s="27"/>
       <c r="R43" s="2"/>
@@ -5813,7 +5866,7 @@
         <v>59</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>4</v>
@@ -5896,7 +5949,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>4</v>
@@ -5938,7 +5991,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>1</v>
@@ -5980,7 +6033,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>4</v>
@@ -6019,7 +6072,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>58</v>
@@ -6057,10 +6110,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>4</v>
@@ -6134,7 +6187,7 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="30">
+    <row r="52" spans="1:18" ht="28.2">
       <c r="A52" s="19">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6143,7 +6196,7 @@
         <v>124</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>1</v>
@@ -6179,7 +6232,7 @@
         <v>25000</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q52" s="27"/>
       <c r="R52" s="2"/>
@@ -6193,7 +6246,7 @@
         <v>106</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>1</v>
@@ -6226,7 +6279,7 @@
       <c r="Q53" s="27"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="14.4">
       <c r="A54" s="19">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6269,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q54" s="27"/>
       <c r="R54" s="2"/>
@@ -6283,7 +6336,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>1</v>
@@ -6317,21 +6370,21 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="14.4">
       <c r="A56" s="19">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>1</v>
@@ -6365,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q56" s="27"/>
       <c r="R56" s="2"/>
@@ -6379,7 +6432,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>1</v>
@@ -6413,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q57" s="27"/>
       <c r="R57" s="2"/>
@@ -6427,7 +6480,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>1</v>
@@ -6461,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q58" s="27"/>
       <c r="R58" s="2"/>
@@ -6505,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q59" s="27"/>
       <c r="R59" s="2"/>
@@ -6519,7 +6572,7 @@
         <v>97</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>1</v>
@@ -6553,12 +6606,12 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q60" s="27"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="14.4">
       <c r="A61" s="19">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6567,7 +6620,7 @@
         <v>113</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>4</v>
@@ -6601,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q61" s="27"/>
       <c r="R61" s="2"/>
@@ -6612,10 +6665,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>4</v>
@@ -6649,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q62" s="27"/>
       <c r="R62" s="2"/>
@@ -6660,10 +6713,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>4</v>
@@ -6696,12 +6749,12 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q63" s="27"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" ht="14.4">
       <c r="A64" s="19">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6742,7 +6795,7 @@
         <v>25000</v>
       </c>
       <c r="O64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q64" s="27"/>
       <c r="R64" s="2"/>
@@ -6756,7 +6809,7 @@
         <v>108</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>1</v>
@@ -6790,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q65" s="27"/>
       <c r="R65" s="2"/>
@@ -6838,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q66" s="27"/>
       <c r="R66" s="2"/>
@@ -6882,12 +6935,12 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q67" s="27"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" ht="14.4">
       <c r="A68" s="19">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6929,7 +6982,7 @@
         <v>40000</v>
       </c>
       <c r="O68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q68" s="27"/>
       <c r="R68" s="2"/>
@@ -6943,7 +6996,7 @@
         <v>125</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>4</v>
@@ -6977,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q69" s="27"/>
       <c r="R69" s="2"/>
@@ -6991,7 +7044,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>4</v>
@@ -7021,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q70" s="27"/>
       <c r="R70" s="2"/>
@@ -7069,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q71" s="27"/>
       <c r="R71" s="2"/>
@@ -7083,7 +7136,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>4</v>
@@ -7113,12 +7166,12 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q72" s="27"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" ht="14.4">
       <c r="A73" s="19">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -7161,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q73" s="27"/>
       <c r="R73" s="2"/>
@@ -7214,7 +7267,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>115</v>
@@ -7252,10 +7305,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>4</v>
@@ -7296,7 +7349,7 @@
         <v>44</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>4</v>
@@ -7372,7 +7425,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>1</v>
@@ -7410,7 +7463,7 @@
         <v>42</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>4</v>
@@ -7443,7 +7496,7 @@
       <c r="Q80" s="27"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" ht="14.4">
       <c r="A81" s="19">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -7452,7 +7505,7 @@
         <v>138</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>4</v>
@@ -7486,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q81" s="27"/>
       <c r="R81" s="2"/>
@@ -7497,7 +7550,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>67</v>
@@ -7584,7 +7637,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>4</v>
@@ -7658,7 +7711,7 @@
       <c r="Q85" s="27"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" ht="14.4">
       <c r="A86" s="19">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -7700,7 +7753,7 @@
         <v>50000</v>
       </c>
       <c r="O86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q86" s="27"/>
       <c r="R86" s="2"/>
@@ -7714,7 +7767,7 @@
         <v>129</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>1</v>
@@ -7756,7 +7809,7 @@
         <v>111</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>4</v>
@@ -7797,7 +7850,7 @@
         <v>35</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>4</v>
@@ -7881,7 +7934,7 @@
         <v>32</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>4</v>
@@ -7914,7 +7967,7 @@
       <c r="Q91" s="27"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" ht="14.4">
       <c r="A92" s="19">
         <f t="shared" si="12"/>
         <v>89</v>
@@ -7923,7 +7976,7 @@
         <v>20</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>1</v>
@@ -7953,7 +8006,7 @@
         <v>295200</v>
       </c>
       <c r="O92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q92" s="27"/>
       <c r="R92" s="2"/>
@@ -8046,7 +8099,7 @@
         <v>65</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>1</v>
@@ -8210,7 +8263,7 @@
         <v>131</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>1</v>
@@ -8329,10 +8382,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>4</v>
@@ -8370,7 +8423,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>1</v>
@@ -8412,7 +8465,7 @@
         <v>133</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>4</v>
@@ -8450,10 +8503,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>1</v>
@@ -8495,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>1</v>
@@ -8537,7 +8590,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>1</v>
@@ -8621,7 +8674,7 @@
         <v>95</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>4</v>
@@ -8660,7 +8713,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>98</v>
@@ -8705,7 +8758,7 @@
         <v>24</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>4</v>
@@ -8789,7 +8842,7 @@
         <v>60</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>4</v>
@@ -8828,7 +8881,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>74</v>
@@ -8907,7 +8960,7 @@
         <v>34</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>1</v>
@@ -8940,7 +8993,7 @@
       <c r="Q116" s="27"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="1:18" s="8" customFormat="1">
+    <row r="117" spans="1:18" s="8" customFormat="1" ht="14.4">
       <c r="A117" s="19">
         <f t="shared" si="12"/>
         <v>114</v>
@@ -8980,7 +9033,7 @@
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P117"/>
       <c r="Q117" s="27"/>
@@ -8992,7 +9045,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>33</v>
@@ -9033,7 +9086,7 @@
         <v>85</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>4</v>
@@ -9075,7 +9128,7 @@
         <v>84</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>4</v>
@@ -9110,7 +9163,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>141</v>
@@ -9189,7 +9242,7 @@
         <v>79</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>1</v>
@@ -9228,7 +9281,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>47</v>
@@ -9239,15 +9292,15 @@
       <c r="E124" s="18">
         <v>22154</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>269</v>
+      <c r="F124" s="31">
+        <v>43524</v>
       </c>
       <c r="G124" s="15">
         <v>18290.625</v>
       </c>
-      <c r="H124" s="9" t="str">
+      <c r="H124" s="9">
         <f t="shared" si="24"/>
-        <v>29/02/2019</v>
+        <v>43524</v>
       </c>
       <c r="I124" s="7">
         <v>50</v>
@@ -9308,10 +9361,10 @@
         <v>123</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>1</v>
@@ -9353,7 +9406,7 @@
         <v>48</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>1</v>
@@ -9395,7 +9448,7 @@
         <v>46</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>4</v>
@@ -9466,7 +9519,7 @@
       <c r="Q129" s="27"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" ht="14.4">
       <c r="A130" s="19">
         <f t="shared" si="12"/>
         <v>127</v>
@@ -9505,12 +9558,12 @@
         <v>16400</v>
       </c>
       <c r="O130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q130" s="27"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" ht="14.4">
       <c r="A131" s="19">
         <f t="shared" si="12"/>
         <v>128</v>
@@ -9519,7 +9572,7 @@
         <v>118</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>4</v>
@@ -9549,7 +9602,7 @@
         <v>12300</v>
       </c>
       <c r="O131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q131" s="27"/>
       <c r="R131" s="2"/>
@@ -9598,10 +9651,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>4</v>
@@ -9681,7 +9734,7 @@
         <v>50</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>4</v>
@@ -9719,7 +9772,7 @@
         <v>117</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>1</v>
@@ -9799,7 +9852,7 @@
         <v>93</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>4</v>
@@ -9913,7 +9966,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>1</v>
@@ -9955,7 +10008,7 @@
         <v>107</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>1</v>
@@ -9997,7 +10050,7 @@
         <v>23</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>4</v>
@@ -10026,13 +10079,13 @@
       <c r="Q143" s="27"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" ht="14.4">
       <c r="A144" s="19">
         <f t="shared" si="27"/>
         <v>141</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C144" s="17" t="s">
         <v>72</v>
@@ -10065,7 +10118,7 @@
         <v>8200</v>
       </c>
       <c r="O144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q144" s="27"/>
       <c r="R144" s="2"/>
@@ -10076,10 +10129,10 @@
         <v>142</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>1</v>
@@ -10117,7 +10170,7 @@
         <v>31</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>4</v>
@@ -10155,7 +10208,7 @@
         <v>69</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>1</v>
@@ -10188,16 +10241,16 @@
       <c r="Q147" s="27"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" ht="14.4">
       <c r="A148" s="19">
         <f t="shared" si="27"/>
         <v>145</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>4</v>
@@ -10227,7 +10280,7 @@
         <v>4920</v>
       </c>
       <c r="O148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q148" s="27"/>
       <c r="R148" s="2"/>
@@ -10279,7 +10332,7 @@
         <v>30</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>1</v>
@@ -10317,7 +10370,7 @@
         <v>128</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>1</v>
@@ -10352,10 +10405,10 @@
         <v>149</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>4</v>
@@ -10393,7 +10446,7 @@
         <v>131</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>4</v>
@@ -10423,66 +10476,66 @@
       <c r="R153" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R153"/>
+  <autoFilter ref="A3:R153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="60">
+    <row r="3" spans="1:13" ht="27.6">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -10496,7 +10549,7 @@
         <v>1.8146499999999999E-2</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F5" s="25">
         <v>7.0000000000000007E-2</v>
@@ -10509,10 +10562,10 @@
         <v>0.04</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10520,7 +10573,7 @@
         <v>1.98745E-2</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F6" s="25">
         <v>0.05</v>
@@ -10531,7 +10584,7 @@
       <c r="H6" s="26"/>
       <c r="J6" s="26"/>
       <c r="M6" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10542,7 +10595,7 @@
         <v>2.1090000000000001E-2</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="25">
         <v>0.04</v>
@@ -10560,7 +10613,7 @@
         <v>2.2095500000000001E-2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F8" s="25">
         <v>0.03</v>
@@ -10570,7 +10623,7 @@
       </c>
       <c r="H8" s="26"/>
       <c r="M8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10581,7 +10634,7 @@
         <v>2.3014999999999997E-2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F9" s="25">
         <v>0.02</v>
@@ -10599,7 +10652,7 @@
         <v>2.3857999999999997E-2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10633,7 +10686,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="J13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10957,14 +11010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z126"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="2:26">
       <c r="C1">
@@ -10976,10 +11029,10 @@
     </row>
     <row r="2" spans="2:26">
       <c r="B2" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J2" s="30">
         <v>54</v>
@@ -10988,10 +11041,10 @@
         <v>792.35585161999995</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W2" s="30">
         <v>48</v>
@@ -11002,10 +11055,10 @@
     </row>
     <row r="3" spans="2:26">
       <c r="B3" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J3" s="30">
         <v>54</v>
@@ -11014,10 +11067,10 @@
         <v>4535.9910044999997</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U3" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W3" s="30">
         <v>48</v>
@@ -11028,10 +11081,10 @@
     </row>
     <row r="4" spans="2:26">
       <c r="B4" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J4" s="30">
         <v>54</v>
@@ -11044,10 +11097,10 @@
         <v>11667.576382719999</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="U4" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W4" s="30">
         <v>48</v>
@@ -11066,10 +11119,10 @@
     </row>
     <row r="5" spans="2:26">
       <c r="B5" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J5" s="30">
         <v>55</v>
@@ -11078,10 +11131,10 @@
         <v>770.31534491000002</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W5" s="30">
         <v>49</v>
@@ -11092,10 +11145,10 @@
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J6" s="30">
         <v>55</v>
@@ -11104,10 +11157,10 @@
         <v>4136.3133565999997</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W6" s="30">
         <v>49</v>
@@ -11118,10 +11171,10 @@
     </row>
     <row r="7" spans="2:26">
       <c r="B7" s="29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J7" s="30">
         <v>55</v>
@@ -11138,10 +11191,10 @@
         <v>22247.813376530001</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="U7" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W7" s="30">
         <v>49</v>
@@ -11160,10 +11213,10 @@
     </row>
     <row r="8" spans="2:26">
       <c r="B8" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J8" s="30">
         <v>56</v>
@@ -11172,10 +11225,10 @@
         <v>747.00894066000001</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W8" s="30">
         <v>50</v>
@@ -11186,10 +11239,10 @@
     </row>
     <row r="9" spans="2:26">
       <c r="B9" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J9" s="30">
         <v>56</v>
@@ -11198,10 +11251,10 @@
         <v>3762.4454067000001</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="U9" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W9" s="30">
         <v>50</v>
@@ -11212,10 +11265,10 @@
     </row>
     <row r="10" spans="2:26">
       <c r="B10" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J10" s="30">
         <v>56</v>
@@ -11232,10 +11285,10 @@
         <v>31833.280909890003</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U10" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W10" s="30">
         <v>50</v>
@@ -11254,10 +11307,10 @@
     </row>
     <row r="11" spans="2:26">
       <c r="B11" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J11" s="30">
         <v>57</v>
@@ -11266,10 +11319,10 @@
         <v>722.51444762999995</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W11" s="30">
         <v>51</v>
@@ -11280,10 +11333,10 @@
     </row>
     <row r="12" spans="2:26">
       <c r="B12" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J12" s="30">
         <v>57</v>
@@ -11292,10 +11345,10 @@
         <v>4553.8337726</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U12" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W12" s="30">
         <v>51</v>
@@ -11306,10 +11359,10 @@
     </row>
     <row r="13" spans="2:26">
       <c r="B13" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J13" s="30">
         <v>57</v>
@@ -11326,10 +11379,10 @@
         <v>41000.716226820005</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W13" s="30">
         <v>51</v>
@@ -11348,10 +11401,10 @@
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="29" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J14" s="30">
         <v>58</v>
@@ -11364,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W14" s="30">
         <v>52</v>
@@ -11382,10 +11435,10 @@
     </row>
     <row r="15" spans="2:26">
       <c r="B15" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J15" s="30">
         <v>58</v>
@@ -11398,10 +11451,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U15" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W15" s="30">
         <v>52</v>
@@ -11416,10 +11469,10 @@
     </row>
     <row r="16" spans="2:26">
       <c r="B16" s="29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J16" s="30">
         <v>58</v>
@@ -11436,10 +11489,10 @@
         <v>49302.057647650006</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U16" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W16" s="30">
         <v>52</v>
@@ -11458,10 +11511,10 @@
     </row>
     <row r="17" spans="2:26">
       <c r="B17" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J17" s="30">
         <v>59</v>
@@ -11474,10 +11527,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="U17" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W17" s="30">
         <v>53</v>
@@ -11492,10 +11545,10 @@
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J18" s="30">
         <v>59</v>
@@ -11508,10 +11561,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W18" s="30">
         <v>53</v>
@@ -11526,10 +11579,10 @@
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J19" s="30">
         <v>59</v>
@@ -11546,10 +11599,10 @@
         <v>56812.58528335001</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U19" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W19" s="30">
         <v>53</v>
@@ -11568,10 +11621,10 @@
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J20" s="30">
         <v>60</v>
@@ -11584,10 +11637,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U20" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W20" s="30">
         <v>54</v>
@@ -11602,10 +11655,10 @@
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J21" s="30">
         <v>60</v>
@@ -11618,10 +11671,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U21" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W21" s="30">
         <v>54</v>
@@ -11636,10 +11689,10 @@
     </row>
     <row r="22" spans="2:26">
       <c r="B22" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J22" s="30">
         <v>60</v>
@@ -11656,10 +11709,10 @@
         <v>63602.312684020013</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W22" s="30">
         <v>54</v>
@@ -11678,10 +11731,10 @@
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J23" s="30">
         <v>61</v>
@@ -11694,10 +11747,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="U23" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W23" s="30">
         <v>55</v>
@@ -11712,10 +11765,10 @@
     </row>
     <row r="24" spans="2:26">
       <c r="B24" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J24" s="30">
         <v>61</v>
@@ -11728,10 +11781,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="U24" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W24" s="30">
         <v>55</v>
@@ -11746,10 +11799,10 @@
     </row>
     <row r="25" spans="2:26">
       <c r="B25" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J25" s="30">
         <v>61</v>
@@ -11766,10 +11819,10 @@
         <v>66950.440220490011</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W25" s="30">
         <v>55</v>
@@ -11788,10 +11841,10 @@
     </row>
     <row r="26" spans="2:26">
       <c r="B26" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J26" s="30">
         <v>62</v>
@@ -11804,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W26" s="30">
         <v>56</v>
@@ -11822,10 +11875,10 @@
     </row>
     <row r="27" spans="2:26">
       <c r="B27" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J27" s="30">
         <v>62</v>
@@ -11838,10 +11891,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U27" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W27" s="30">
         <v>56</v>
@@ -11856,10 +11909,10 @@
     </row>
     <row r="28" spans="2:26">
       <c r="B28" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J28" s="30">
         <v>62</v>
@@ -11876,10 +11929,10 @@
         <v>70131.229317210004</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W28" s="30">
         <v>56</v>
@@ -11898,10 +11951,10 @@
     </row>
     <row r="29" spans="2:26">
       <c r="B29" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J29" s="30">
         <v>63</v>
@@ -11914,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U29" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W29" s="30">
         <v>57</v>
@@ -11932,10 +11985,10 @@
     </row>
     <row r="30" spans="2:26">
       <c r="B30" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J30" s="30">
         <v>63</v>
@@ -11948,10 +12001,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U30" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W30" s="30">
         <v>57</v>
@@ -11966,10 +12019,10 @@
     </row>
     <row r="31" spans="2:26">
       <c r="B31" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J31" s="30">
         <v>63</v>
@@ -11986,10 +12039,10 @@
         <v>73151.022756179998</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U31" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W31" s="30">
         <v>57</v>
@@ -12008,10 +12061,10 @@
     </row>
     <row r="32" spans="2:26">
       <c r="B32" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J32" s="30">
         <v>64</v>
@@ -12024,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="U32" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W32" s="30">
         <v>58</v>
@@ -12042,10 +12095,10 @@
     </row>
     <row r="33" spans="2:26">
       <c r="B33" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J33" s="30">
         <v>64</v>
@@ -12058,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W33" s="30">
         <v>58</v>
@@ -12076,10 +12129,10 @@
     </row>
     <row r="34" spans="2:26">
       <c r="B34" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J34" s="30">
         <v>64</v>
@@ -12096,10 +12149,10 @@
         <v>135118.37474698998</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U34" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W34" s="30">
         <v>58</v>
@@ -12118,10 +12171,10 @@
     </row>
     <row r="35" spans="2:26">
       <c r="B35" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J35" s="30">
         <v>64</v>
@@ -12134,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="U35" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W35" s="30">
         <v>59</v>
@@ -12152,7 +12205,7 @@
     </row>
     <row r="36" spans="2:26">
       <c r="B36" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G36" s="30"/>
       <c r="J36" s="30"/>
@@ -12165,10 +12218,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U36" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W36" s="30">
         <v>59</v>
@@ -12183,7 +12236,7 @@
     </row>
     <row r="37" spans="2:26">
       <c r="B37" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G37" s="30"/>
       <c r="J37" s="30"/>
@@ -12193,10 +12246,10 @@
         <v>137193.80572778999</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U37" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W37" s="30">
         <v>59</v>
@@ -12215,16 +12268,16 @@
     </row>
     <row r="38" spans="2:26">
       <c r="B38" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="P38" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="U38" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W38" s="30">
         <v>60</v>
@@ -12239,13 +12292,13 @@
     </row>
     <row r="39" spans="2:26">
       <c r="B39" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U39" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W39" s="30">
         <v>60</v>
@@ -12260,13 +12313,13 @@
     </row>
     <row r="40" spans="2:26">
       <c r="B40" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U40" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W40" s="30">
         <v>60</v>
@@ -12285,13 +12338,13 @@
     </row>
     <row r="41" spans="2:26">
       <c r="B41" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U41" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W41" s="30">
         <v>61</v>
@@ -12306,13 +12359,13 @@
     </row>
     <row r="42" spans="2:26">
       <c r="B42" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U42" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W42" s="30">
         <v>61</v>
@@ -12327,13 +12380,13 @@
     </row>
     <row r="43" spans="2:26">
       <c r="B43" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U43" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W43" s="30">
         <v>61</v>
@@ -12352,13 +12405,13 @@
     </row>
     <row r="44" spans="2:26">
       <c r="B44" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U44" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W44" s="30">
         <v>62</v>
@@ -12373,13 +12426,13 @@
     </row>
     <row r="45" spans="2:26">
       <c r="B45" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="U45" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W45" s="30">
         <v>62</v>
@@ -12394,13 +12447,13 @@
     </row>
     <row r="46" spans="2:26">
       <c r="B46" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U46" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W46" s="30">
         <v>62</v>
@@ -12419,13 +12472,13 @@
     </row>
     <row r="47" spans="2:26">
       <c r="B47" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U47" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W47" s="30">
         <v>63</v>
@@ -12440,13 +12493,13 @@
     </row>
     <row r="48" spans="2:26">
       <c r="B48" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U48" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W48" s="30">
         <v>63</v>
@@ -12461,13 +12514,13 @@
     </row>
     <row r="49" spans="2:26">
       <c r="B49" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P49" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U49" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W49" s="30">
         <v>63</v>
@@ -12486,13 +12539,13 @@
     </row>
     <row r="50" spans="2:26">
       <c r="B50" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P50" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U50" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W50" s="30">
         <v>64</v>
@@ -12507,13 +12560,13 @@
     </row>
     <row r="51" spans="2:26">
       <c r="B51" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="U51" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W51" s="30">
         <v>64</v>
@@ -12528,13 +12581,13 @@
     </row>
     <row r="52" spans="2:26">
       <c r="B52" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P52" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U52" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W52" s="30">
         <v>64</v>
@@ -12553,13 +12606,13 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="U53" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W53" s="30">
         <v>65</v>
@@ -12574,13 +12627,13 @@
     </row>
     <row r="54" spans="2:26">
       <c r="B54" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U54" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W54" s="30">
         <v>65</v>
@@ -12595,13 +12648,13 @@
     </row>
     <row r="55" spans="2:26">
       <c r="B55" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U55" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W55" s="30">
         <v>65</v>
@@ -12620,13 +12673,13 @@
     </row>
     <row r="56" spans="2:26">
       <c r="B56" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U56" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W56" s="30">
         <v>66</v>
@@ -12641,13 +12694,13 @@
     </row>
     <row r="57" spans="2:26">
       <c r="B57" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U57" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W57" s="30">
         <v>66</v>
@@ -12662,13 +12715,13 @@
     </row>
     <row r="58" spans="2:26">
       <c r="B58" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="U58" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W58" s="30">
         <v>66</v>
@@ -12687,13 +12740,13 @@
     </row>
     <row r="59" spans="2:26">
       <c r="B59" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P59" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U59" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W59" s="30">
         <v>67</v>
@@ -12708,13 +12761,13 @@
     </row>
     <row r="60" spans="2:26">
       <c r="B60" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P60" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="U60" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="W60" s="30">
         <v>67</v>
@@ -12729,13 +12782,13 @@
     </row>
     <row r="61" spans="2:26">
       <c r="B61" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U61" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W61" s="30">
         <v>67</v>
@@ -12750,13 +12803,13 @@
     </row>
     <row r="62" spans="2:26">
       <c r="B62" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U62" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W62" s="30">
         <v>67</v>
@@ -12775,10 +12828,10 @@
     </row>
     <row r="63" spans="2:26">
       <c r="B63" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P63" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="X63">
         <f>SUM(X2:X62)</f>
@@ -12787,345 +12840,345 @@
     </row>
     <row r="64" spans="2:26">
       <c r="B64" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P64" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P66" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="2:16">
       <c r="B69" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P69" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="2:16">
       <c r="B71" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P71" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="2:16">
       <c r="P72" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:16">
       <c r="P73" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="2:16">
       <c r="P74" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="2:16">
       <c r="P75" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="2:16">
       <c r="P76" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="2:16">
       <c r="P77" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="2:16">
       <c r="P78" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="2:16">
       <c r="P79" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="2:16">
       <c r="P80" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="16:16">
       <c r="P81" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="16:16">
       <c r="P82" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="16:16">
       <c r="P83" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="16:16">
       <c r="P84" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="16:16">
       <c r="P85" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="16:16">
       <c r="P86" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="16:16">
       <c r="P87" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="16:16">
       <c r="P88" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="16:16">
       <c r="P89" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="16:16">
       <c r="P90" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="16:16">
       <c r="P91" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="16:16">
       <c r="P92" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="16:16">
       <c r="P93" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="16:16">
       <c r="P94" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="16:16">
       <c r="P95" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="16:16">
       <c r="P96" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="16:16">
       <c r="P97" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="16:16">
       <c r="P98" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="16:16">
       <c r="P99" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="16:16">
       <c r="P100" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="16:16">
       <c r="P101" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="16:16">
       <c r="P102" s="29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="16:16">
       <c r="P103" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="16:16">
       <c r="P104" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="16:16">
       <c r="P105" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="16:16">
       <c r="P106" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="16:16">
       <c r="P107" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="16:16">
       <c r="P108" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="16:16">
       <c r="P109" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="16:16">
       <c r="P110" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="16:16">
       <c r="P111" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="16:16">
       <c r="P112" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="16:16">
       <c r="P113" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="16:16">
       <c r="P114" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="16:16">
       <c r="P115" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="16:16">
       <c r="P116" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="16:16">
       <c r="P117" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="16:16">
       <c r="P118" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="16:16">
       <c r="P119" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="16:16">
       <c r="P120" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="16:16">
       <c r="P121" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="16:16">
       <c r="P122" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" spans="16:16">
       <c r="P123" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="16:16">
       <c r="P124" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="16:16">
       <c r="P125" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="16:16">
       <c r="P126" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="U2:X62">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U2:X62">
     <sortCondition ref="W2:W62"/>
     <sortCondition ref="U2:U62"/>
   </sortState>
